--- a/result/with_base/134/arousal/s13_3.xlsx
+++ b/result/with_base/134/arousal/s13_3.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.93359375</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8475000262260437</v>
+        <v>0.8498883843421936</v>
       </c>
       <c r="C2" t="n">
-        <v>41679.498046875</v>
+        <v>11283.95556640625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8788636489347978</v>
+        <v>0.8581932783126831</v>
       </c>
       <c r="E2" t="n">
-        <v>41679.05575284091</v>
+        <v>11280.58530560662</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8677455484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40890.154296875</v>
+        <v>10965.75244140625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8971590887416493</v>
+        <v>0.8895745803328121</v>
       </c>
       <c r="E3" t="n">
-        <v>40887.24538352273</v>
+        <v>10964.09443933824</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8924999833106995</v>
+        <v>0.8761160671710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40104.298828125</v>
+        <v>10659.43359375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9307954582301053</v>
+        <v>0.9179359253715066</v>
       </c>
       <c r="E4" t="n">
-        <v>40101.27592329546</v>
+        <v>10657.03624770221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8705357015132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39329.052734375</v>
+        <v>10359.1923828125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9576136307282881</v>
+        <v>0.9118960079024819</v>
       </c>
       <c r="E5" t="n">
-        <v>39326.42365056818</v>
+        <v>10356.74006204044</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8974999785423279</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38569.35546875</v>
+        <v>10065.69921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9568181742321361</v>
+        <v>0.9237788880572599</v>
       </c>
       <c r="E6" t="n">
-        <v>38565.72443181818</v>
+        <v>10063.02062270221</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.8794642984867096</v>
       </c>
       <c r="C7" t="n">
-        <v>37820.71875</v>
+        <v>9779.84326171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9620454473928972</v>
+        <v>0.9272584038622239</v>
       </c>
       <c r="E7" t="n">
-        <v>37817.68430397727</v>
+        <v>9776.701688878677</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8850446343421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37085.517578125</v>
+        <v>9498.82568359375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9740909229625355</v>
+        <v>0.9489889705882353</v>
       </c>
       <c r="E8" t="n">
-        <v>37082.49360795454</v>
+        <v>9496.805778952206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36363.716796875</v>
+        <v>9226.55810546875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9773863716558977</v>
+        <v>0.9551601900773889</v>
       </c>
       <c r="E9" t="n">
-        <v>36360.71129261364</v>
+        <v>9224.219956341913</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9375</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35654.166015625</v>
+        <v>8961.21630859375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9823863777247342</v>
+        <v>0.9535189060603871</v>
       </c>
       <c r="E10" t="n">
-        <v>35651.47301136364</v>
+        <v>8958.879653033087</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9051339328289032</v>
       </c>
       <c r="C11" t="n">
-        <v>34958.529296875</v>
+        <v>8701.77001953125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9820454662496393</v>
+        <v>0.9755777295897988</v>
       </c>
       <c r="E11" t="n">
-        <v>34955.40802556818</v>
+        <v>8699.961397058823</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9375</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C12" t="n">
-        <v>34274.814453125</v>
+        <v>8450.19775390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9862500049851157</v>
+        <v>0.9617253156269298</v>
       </c>
       <c r="E12" t="n">
-        <v>34271.83132102273</v>
+        <v>8448.283203125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33603.515625</v>
+        <v>8205.4677734375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9586397058823529</v>
       </c>
       <c r="E13" t="n">
-        <v>33601.07244318182</v>
+        <v>8203.235581341913</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C14" t="n">
-        <v>32945.544921875</v>
+        <v>7966.1640625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9880681904879484</v>
+        <v>0.9782694332739886</v>
       </c>
       <c r="E14" t="n">
-        <v>32942.81818181818</v>
+        <v>7964.258099724265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32299.6044921875</v>
+        <v>7733.404052734375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.985113647851077</v>
+        <v>0.9772190136068007</v>
       </c>
       <c r="E15" t="n">
-        <v>32296.91690340909</v>
+        <v>7731.821145450368</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31664.8544921875</v>
+        <v>7507.652587890625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9704569332739886</v>
       </c>
       <c r="E16" t="n">
-        <v>31662.55007102273</v>
+        <v>7505.613941865809</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31042.6962890625</v>
+        <v>7286.7724609375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9745273099226111</v>
       </c>
       <c r="E17" t="n">
-        <v>31040.41281960227</v>
+        <v>7285.262752757353</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9001116156578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30433.205078125</v>
+        <v>7072.716552734375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E18" t="n">
-        <v>30429.80326704546</v>
+        <v>7070.891716452206</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C19" t="n">
-        <v>29833.1650390625</v>
+        <v>6863.60595703125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9782694332739886</v>
       </c>
       <c r="E19" t="n">
-        <v>29830.64985795454</v>
+        <v>6862.300953584559</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29245.677734375</v>
+        <v>6660.51025390625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E20" t="n">
-        <v>29242.73774857954</v>
+        <v>6659.275218290441</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9375</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C21" t="n">
-        <v>28668.7236328125</v>
+        <v>6463.926025390625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E21" t="n">
-        <v>28665.83664772727</v>
+        <v>6461.795295266544</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28101.982421875</v>
+        <v>6271.0498046875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E22" t="n">
-        <v>28099.74715909091</v>
+        <v>6269.633932674632</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9375</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C23" t="n">
-        <v>27546.443359375</v>
+        <v>6084.2939453125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9835215351160835</v>
       </c>
       <c r="E23" t="n">
-        <v>27544.34428267046</v>
+        <v>6082.751665900735</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C24" t="n">
-        <v>27000.5224609375</v>
+        <v>5901.938232421875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E24" t="n">
-        <v>26999.30859375</v>
+        <v>5900.898064108456</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C25" t="n">
-        <v>26466.251953125</v>
+        <v>5724.851318359375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9790572489009184</v>
       </c>
       <c r="E25" t="n">
-        <v>26464.63334517046</v>
+        <v>5724.113654641544</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9375</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>25942.154296875</v>
+        <v>5553.0234375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E26" t="n">
-        <v>25940.03000710227</v>
+        <v>5552.141142003677</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.921875</v>
       </c>
       <c r="C27" t="n">
-        <v>25426.5380859375</v>
+        <v>5385.736328125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9915966391563416</v>
       </c>
       <c r="E27" t="n">
-        <v>25425.22674005682</v>
+        <v>5384.907054227941</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>24921.6181640625</v>
+        <v>5223.2314453125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>24920.12855113636</v>
+        <v>5222.313993566177</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9296875</v>
       </c>
       <c r="C29" t="n">
-        <v>24425.9052734375</v>
+        <v>5064.90234375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E29" t="n">
-        <v>24424.54119318182</v>
+        <v>5064.168227251838</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C30" t="n">
-        <v>23940.037109375</v>
+        <v>4911.64111328125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E30" t="n">
-        <v>23938.37730823864</v>
+        <v>4910.538861443015</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C31" t="n">
-        <v>23462.806640625</v>
+        <v>4761.921142578125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9960227283564481</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E31" t="n">
-        <v>23461.38618607954</v>
+        <v>4761.032973345588</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>22995.3232421875</v>
+        <v>4616.579833984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E32" t="n">
-        <v>22993.45951704546</v>
+        <v>4615.728975183823</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22535.908203125</v>
+        <v>4475.529052734375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E33" t="n">
-        <v>22534.35777698864</v>
+        <v>4474.525189568015</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22085.4013671875</v>
+        <v>4337.954345703125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9921875</v>
       </c>
       <c r="E34" t="n">
-        <v>22083.89808238636</v>
+        <v>4337.253274356618</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C35" t="n">
-        <v>21643.5185546875</v>
+        <v>4204.63818359375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9683560939396129</v>
       </c>
       <c r="E35" t="n">
-        <v>21641.94975142046</v>
+        <v>4203.961971507353</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.949999988079071</v>
+        <v>0.94140625</v>
       </c>
       <c r="C36" t="n">
-        <v>21210.0546875</v>
+        <v>4074.768310546875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E36" t="n">
-        <v>21208.42027698864</v>
+        <v>4074.178021599265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20784.68359375</v>
+        <v>3948.94873046875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E37" t="n">
-        <v>20783.05522017046</v>
+        <v>3948.258315142463</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9375</v>
       </c>
       <c r="C38" t="n">
-        <v>20367.8369140625</v>
+        <v>3826.174560546875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E38" t="n">
-        <v>20365.79580965909</v>
+        <v>3825.688562729779</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C39" t="n">
-        <v>19957.6708984375</v>
+        <v>3707.414306640625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9893644942956812</v>
       </c>
       <c r="E39" t="n">
-        <v>19956.38387784091</v>
+        <v>3706.735926011029</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9375</v>
       </c>
       <c r="C40" t="n">
-        <v>19555.5361328125</v>
+        <v>3591.613159179688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E40" t="n">
-        <v>19554.73703835227</v>
+        <v>3591.113956227022</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C41" t="n">
-        <v>19161.80078125</v>
+        <v>3479.59716796875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9531906527631423</v>
       </c>
       <c r="E41" t="n">
-        <v>19160.73508522727</v>
+        <v>3478.991009880515</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C42" t="n">
-        <v>18775.6865234375</v>
+        <v>3370.104614257812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E42" t="n">
-        <v>18774.20969460227</v>
+        <v>3369.670510684743</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18395.8408203125</v>
+        <v>3264.025146484375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E43" t="n">
-        <v>18395.01509232954</v>
+        <v>3263.673397288603</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8967633843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18024.048828125</v>
+        <v>3161.310913085938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9665178586454952</v>
       </c>
       <c r="E44" t="n">
-        <v>18023.06995738636</v>
+        <v>3160.79105870864</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C45" t="n">
-        <v>17659.3974609375</v>
+        <v>3061.098754882812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E45" t="n">
-        <v>17658.17684659091</v>
+        <v>3060.719338809743</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17301.2568359375</v>
+        <v>2963.87109375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E46" t="n">
-        <v>17300.185546875</v>
+        <v>2963.564998851103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C47" t="n">
-        <v>16950.283203125</v>
+        <v>2869.558959960938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9883797273916357</v>
       </c>
       <c r="E47" t="n">
-        <v>16948.96786221591</v>
+        <v>2869.250718060662</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16605.4736328125</v>
+        <v>2777.984375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E48" t="n">
-        <v>16604.47940340909</v>
+        <v>2777.639993106618</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9174107015132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16267.40576171875</v>
+        <v>2689.122680664062</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9894301470588235</v>
       </c>
       <c r="E49" t="n">
-        <v>16266.55397727273</v>
+        <v>2688.676829618566</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C50" t="n">
-        <v>15935.5205078125</v>
+        <v>2602.687133789062</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9749212194891537</v>
       </c>
       <c r="E50" t="n">
-        <v>15935.05912642045</v>
+        <v>2602.336511948529</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.949999988079071</v>
+        <v>0.93359375</v>
       </c>
       <c r="C51" t="n">
-        <v>15610.79150390625</v>
+        <v>2518.683837890625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E51" t="n">
-        <v>15609.88840553977</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15291.85791015625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15290.91219815341</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14978.7841796875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14978.01962002841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14672.32568359375</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9948863658038053</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14671.126953125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14370.6474609375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14370.05211292614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14075.796875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14074.75541548295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13785.71923828125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13785.09357244318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13501.36572265625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9979545474052429</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13500.96697443182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13222.6455078125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13222.27645596591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12949.70751953125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12948.95632102273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12681.27734375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12680.89000355114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12418.7060546875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12417.94327059659</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12160.95458984375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12160.04376775568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11907.57958984375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11907.11745383523</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11659.60791015625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11659.05069247159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11416.49951171875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11415.76811079545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11177.90283203125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11177.16947798295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10943.5908203125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10943.19371448864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10714.544921875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10713.74698153409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10489.05517578125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10488.7109375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10268.5615234375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10268.05513139205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10052.10205078125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10051.66779119318</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9839.8857421875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9839.489968039772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9631.9833984375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9631.429243607954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9427.7158203125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9427.409801136364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9227.9853515625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9227.384144176136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9031.70654296875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9031.239612926136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8839.33544921875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8838.942737926136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8650.91455078125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8650.405007102272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8465.7841796875</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8465.545099431818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8284.71435546875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8284.326970880682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2682926829268293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7073170731707317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8780487804878049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8780487804878049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01005025125628141</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04020100502512563</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04020100502512563</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.09045226130653267</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.09045226130653267</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.09547738693467336</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.09547738693467336</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9924010295379336</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9195979899497487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9597989949748744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9597989949748744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.1219512195121951</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9899497487437185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.1219512195121951</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9705846304694202</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>2518.438390395221</v>
       </c>
     </row>
   </sheetData>
